--- a/biology/Botanique/Amy_Jacot_Guillarmod/Amy_Jacot_Guillarmod.xlsx
+++ b/biology/Botanique/Amy_Jacot_Guillarmod/Amy_Jacot_Guillarmod.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Amy Jacot Guillarmod, née Amy Frances May Gordon Hean, est une botaniste sud-africaine, née le 23 mai 1911 à Hillcrest, une banlieue de Durban, et morte le 7 mai 1992 à Grahamstown ; elle est connue pour son travail sur la flore du Basutoland ; elle est spécialiste de limnologie et a consacré des publications aux zones humides, aux tourbières et aux éponges.
 </t>
@@ -511,14 +523,16 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Amy Jacot Guillarmod effectue ses études secondaires au lycée de filles de Durban, puis ses études universitaires en Écosse à l'Université de St Andrews où elle obtient une maîtrise en anglais et en histoire ; sa rencontre avec le biologiste écossais D'Arcy Wentworth Thompson l'incite à changer de voie et à entreprendre des études de botanique et de zoologie dans la même université jusqu'à la maîtrise. De retour en Afrique du Sud, elle enseigne brièvement à Durban avant d'être nommée spécialiste en pathologie végétale au service de botanique et de phytopathologie du ministère de l'agriculture, à Pretoria. Ses premiers articles portent sur les maladies virales du tabac et d'autres cultures[1]. Elle y rencontre un collègue entomologiste, Charles Frédéric Jacot-Guillarmod (1912-1979)[2],[3], qu'elle épouse.
-Elle consacre les années 1940-1956 à ses recherches sur la flore du Basutoland au Lesotho. En 1956, elle est nommée chef du département de botanique de l'Université nationale du Lesotho à Roma et y crée l'herbier de l'université (National University of Lesotho Herbarium, également connu sous le nom de Roma Herbarium (ROML)[4],[5].
-En 1957, son mari est nommé conservateur du Muséum Albany à Grahamstown dans la province du Cap-Oriental ; Amy Jacot Guillarmod est nommée en 1958 professeur (senior lecturer) au Département de botanique de l'Université Rhodes dans la même ville et responsable de l'herbier de l'université, jusqu'à sa retraite en 1973[6],[7].
-En 1962, lauréate d'une bourse pour des études à l'étranger, elle retourne à l'université St Andrews où elle obtient en 1967 un doctorat en sciences pour ses travaux sur la flore du Basutoland[7]. Elle est nommée membre de la Limnological Society of Southern Africa en 1969[8].
-Après sa retraite, elle travaille dans la section de sciences naturelles du Muséum Albany, comme assistante de recherche à temps partiel, puis en tant que conservatrice de la collection d'algues marines léguée par Mary Agard Pocock[7].
-Trois plantes sont nommées en son honneur par des botanistes : Merxmuellera guillarmodiae, Navicula jacotiae, Pinnularia guillarmodiae[7].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Amy Jacot Guillarmod effectue ses études secondaires au lycée de filles de Durban, puis ses études universitaires en Écosse à l'Université de St Andrews où elle obtient une maîtrise en anglais et en histoire ; sa rencontre avec le biologiste écossais D'Arcy Wentworth Thompson l'incite à changer de voie et à entreprendre des études de botanique et de zoologie dans la même université jusqu'à la maîtrise. De retour en Afrique du Sud, elle enseigne brièvement à Durban avant d'être nommée spécialiste en pathologie végétale au service de botanique et de phytopathologie du ministère de l'agriculture, à Pretoria. Ses premiers articles portent sur les maladies virales du tabac et d'autres cultures. Elle y rencontre un collègue entomologiste, Charles Frédéric Jacot-Guillarmod (1912-1979) qu'elle épouse.
+Elle consacre les années 1940-1956 à ses recherches sur la flore du Basutoland au Lesotho. En 1956, elle est nommée chef du département de botanique de l'Université nationale du Lesotho à Roma et y crée l'herbier de l'université (National University of Lesotho Herbarium, également connu sous le nom de Roma Herbarium (ROML),.
+En 1957, son mari est nommé conservateur du Muséum Albany à Grahamstown dans la province du Cap-Oriental ; Amy Jacot Guillarmod est nommée en 1958 professeur (senior lecturer) au Département de botanique de l'Université Rhodes dans la même ville et responsable de l'herbier de l'université, jusqu'à sa retraite en 1973,.
+En 1962, lauréate d'une bourse pour des études à l'étranger, elle retourne à l'université St Andrews où elle obtient en 1967 un doctorat en sciences pour ses travaux sur la flore du Basutoland. Elle est nommée membre de la Limnological Society of Southern Africa en 1969.
+Après sa retraite, elle travaille dans la section de sciences naturelles du Muséum Albany, comme assistante de recherche à temps partiel, puis en tant que conservatrice de la collection d'algues marines léguée par Mary Agard Pocock.
+Trois plantes sont nommées en son honneur par des botanistes : Merxmuellera guillarmodiae, Navicula jacotiae, Pinnularia guillarmodiae.
 </t>
         </is>
       </c>
@@ -548,6 +562,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
